--- a/biology/Botanique/Forêt_relique_de_Niaouli/Forêt_relique_de_Niaouli.xlsx
+++ b/biology/Botanique/Forêt_relique_de_Niaouli/Forêt_relique_de_Niaouli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_relique_de_Niaouli</t>
+          <t>Forêt_relique_de_Niaouli</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La forêt relique de Niaouli est un ilôt forestier du Bénin protégé depuis 1997[1], situé au sud du pays, à environ 50 km au nord de Cotonou[2], sur le territoire de la commune d'Allada dans le département de l'Atlantique.
-Cette forêt semi-décidue se trouve sur le territoire de la station de recherche agronomique de Niaouli[1], créée en 1904 dans l'ancienne colonie du Dahomey[3].
+La forêt relique de Niaouli est un ilôt forestier du Bénin protégé depuis 1997, situé au sud du pays, à environ 50 km au nord de Cotonou, sur le territoire de la commune d'Allada dans le département de l'Atlantique.
+Cette forêt semi-décidue se trouve sur le territoire de la station de recherche agronomique de Niaouli, créée en 1904 dans l'ancienne colonie du Dahomey.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_relique_de_Niaouli</t>
+          <t>Forêt_relique_de_Niaouli</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Territoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de Niaouli couvre d'environ 220 hectares, dont seuls 65,5 ha subsistent sous forme de forêt dense relativement préservée (« forêt relique »). Une partie de cette forêt (dite « forêt du bas fond ») compte 24,2 ha. Arrosée par un cours d'eau, l'Ava, elle est, en grande partie, inondée en permanence. L'autre partie s'étend sur 41,3 ha. Dite « forêt du plateau », elle est située sur un plateau entouré de savane[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Niaouli couvre d'environ 220 hectares, dont seuls 65,5 ha subsistent sous forme de forêt dense relativement préservée (« forêt relique »). Une partie de cette forêt (dite « forêt du bas fond ») compte 24,2 ha. Arrosée par un cours d'eau, l'Ava, elle est, en grande partie, inondée en permanence. L'autre partie s'étend sur 41,3 ha. Dite « forêt du plateau », elle est située sur un plateau entouré de savane.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_relique_de_Niaouli</t>
+          <t>Forêt_relique_de_Niaouli</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Végétation
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_relique_de_Niaouli</t>
+          <t>Forêt_relique_de_Niaouli</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,14 +596,122 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Chauves-souris
-Lors d'investigations menées à Niaouli au début des années 2000, plusieurs espèces de chauves-souris (Chiroptera) ont été décrites : Eidolon helvum, Epomophorus gambianus, Epomops franqueti, Hipposideros cyclops, Hypsignathus monstrosus, Megaloglossus woermanni[2].
-Oiseaux
-Une recherche ornithologique menée depuis 1997 a permis d'identifier 166 espèces d'oiseaux, dont 14 nouvelles pour le Bénin : l'Engoulevent à épaulettes noires (Caprimulgus nigriscapularis, le Martin-pêcheur à ventre blanc (Corythornis leucogaster), le Barbican chauve (Gymnobucco calvus), le Barbion grivelé (Pogoniulus scolopaceus), l'Indicateur pygmée (Prodotiscus insignis), l'Indicateur tacheté (Indicator maculatus), le Bulbul à queue blanche (Baeopogon indicator), la Camaroptère à sourcils (Camaroptera superciliaris), l'Erémomèle à tête brune (Eremomela badiceps), l'Hyliote à dos violet (Hyliota violacea), l'Akalat à ailes rousses (Illadopsis rufescens), la Mésangette rayée (Pholidornis rushiae), le Gonolek fuligineux (Laniarius leucorhynchus) et le Pyréneste ponceau (Pyrenestes ostrinus[1]).
-Lépidoptères
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forêt_relique_de_Niaouli</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_relique_de_Niaouli</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chauves-souris</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors d'investigations menées à Niaouli au début des années 2000, plusieurs espèces de chauves-souris (Chiroptera) ont été décrites : Eidolon helvum, Epomophorus gambianus, Epomops franqueti, Hipposideros cyclops, Hypsignathus monstrosus, Megaloglossus woermanni.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forêt_relique_de_Niaouli</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_relique_de_Niaouli</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une recherche ornithologique menée depuis 1997 a permis d'identifier 166 espèces d'oiseaux, dont 14 nouvelles pour le Bénin : l'Engoulevent à épaulettes noires (Caprimulgus nigriscapularis, le Martin-pêcheur à ventre blanc (Corythornis leucogaster), le Barbican chauve (Gymnobucco calvus), le Barbion grivelé (Pogoniulus scolopaceus), l'Indicateur pygmée (Prodotiscus insignis), l'Indicateur tacheté (Indicator maculatus), le Bulbul à queue blanche (Baeopogon indicator), la Camaroptère à sourcils (Camaroptera superciliaris), l'Erémomèle à tête brune (Eremomela badiceps), l'Hyliote à dos violet (Hyliota violacea), l'Akalat à ailes rousses (Illadopsis rufescens), la Mésangette rayée (Pholidornis rushiae), le Gonolek fuligineux (Laniarius leucorhynchus) et le Pyréneste ponceau (Pyrenestes ostrinus).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forêt_relique_de_Niaouli</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_relique_de_Niaouli</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 	Lépidoptères
 			Acraea epaea.
 			Azanus isis.
